--- a/cmip5/vocab-mappings/ocean/ocean.component-tree.xlsx
+++ b/cmip5/vocab-mappings/ocean/ocean.component-tree.xlsx
@@ -1,18 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macg/dev/esdoc/repos/esdoc-docs/cmip5/vocab-mappings/ocean/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Table 1</t>
   </si>
@@ -23,9 +38,6 @@
     <t>cmip5-metafor-id</t>
   </si>
   <si>
-    <t>cmip6-detail-property-id</t>
-  </si>
-  <si>
     <t>mapping-qc-status</t>
   </si>
   <si>
@@ -90,16 +102,16 @@
   </si>
   <si>
     <t>OceanMixedLayer</t>
+  </si>
+  <si>
+    <t>cmip6-id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -111,7 +123,7 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -252,78 +264,134 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -449,7 +517,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -458,7 +526,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -467,7 +535,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -531,8 +599,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -540,7 +608,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -548,7 +616,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -567,7 +635,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -575,7 +643,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -603,7 +671,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -629,7 +697,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -655,7 +723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -681,7 +749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -707,7 +775,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -733,7 +801,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -759,7 +827,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -785,7 +853,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -811,7 +879,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,9 +892,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -843,7 +917,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -862,7 +936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -888,7 +962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,7 +1014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -966,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,7 +1066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +1092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +1118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,9 +1183,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1125,7 +1205,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1144,7 +1224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,7 +1280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1226,7 +1306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1278,7 +1358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,7 +1384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1330,7 +1410,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1356,7 +1436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1382,7 +1462,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,185 +1475,192 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D13"/>
+  <dimension ref="A1:IV13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="51.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1719" style="1" customWidth="1"/>
-    <col min="5" max="256" width="8.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="4">
+    </row>
+    <row r="3" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="6">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8">
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s" s="10">
+    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12">
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="10">
+    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12">
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="10">
+    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12">
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="10">
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12">
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s" s="10">
+    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12">
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s" s="10">
+    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12">
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s" s="10">
+    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12">
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s" s="10">
+    <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12">
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s" s="10">
+    <row r="13" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="9">
+      <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="10">
-        <v>25</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1582,7 +1669,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
